--- a/excel2json-master/Dialog0.xlsx
+++ b/excel2json-master/Dialog0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Graduation-Project\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A004453-D2E1-4330-AE6D-393CF787B9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB094C97-FF38-4144-A88B-69EC2C4BA4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,63 +31,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>I wanna have a friend. Please with me...</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+  <si>
+    <t>$key</t>
+  </si>
+  <si>
+    <t>$value</t>
+  </si>
+  <si>
+    <t>대사 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사 0에서 이어지는 선택지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#talkDataSet[{}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#selectionData{}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>…?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sad</t>
-  </si>
-  <si>
-    <t>$key</t>
-  </si>
-  <si>
-    <t>$value</t>
-  </si>
-  <si>
-    <t>Yes, we 're a friend.</t>
-  </si>
-  <si>
-    <t>No, I'll fight with you.</t>
-  </si>
-  <si>
-    <t>대사 0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사 0에서 이어지는 선택지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>#talkDataSet[{}]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>#selectionData{}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>emotion</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who the hell are you?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upset</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haha... I am just a Mage.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>You guys like adventure...</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wealth and honor.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, I love them.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, I am not... interested in… them...</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swordman</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evilmage</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -575,20 +611,20 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.3984375" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" customWidth="1"/>
-    <col min="3" max="3" width="23.19921875" customWidth="1"/>
+    <col min="3" max="3" width="48.19921875" customWidth="1"/>
     <col min="4" max="4" width="17.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="4"/>
@@ -596,85 +632,116 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
@@ -687,26 +754,6 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
@@ -768,13 +815,11 @@
       <c r="C32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B25:C25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/excel2json-master/Dialog0.xlsx
+++ b/excel2json-master/Dialog0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Graduation-Project\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB094C97-FF38-4144-A88B-69EC2C4BA4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C14116-CE4E-42DF-9BC9-EFFE7DB30BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
